--- a/reports/HR-OFFICE-(WTC).xlsx
+++ b/reports/HR-OFFICE-(WTC).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="36">
   <si>
     <t>Sr.No</t>
   </si>
@@ -22,544 +22,97 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>URVASHI  DARJI</t>
+    <t>DRASHTEE  ZADAFIYA</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>A</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>A</t>
   </si>
   <si>
     <t>In Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:29:17 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:36:22 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:31:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:32:59 am</t>
-  </si>
-  <si>
     <t>Out Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:07:42 pm</t>
-  </si>
-  <si>
-    <t>DRASHTEE  ZADAFIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:32:44 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:33:32 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:35 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:39:48 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:32 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:41:45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:50:50 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:41:31 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:41:39 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:43 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:48 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:27:10 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:04:51 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:32:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:02 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:56:25 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:48:31 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:40 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:44:40 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:47 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:48:42 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:43:51 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:49:19 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:27:14 am</t>
   </si>
   <si>
     <t>DIXITA  GALANI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:36:53 am</t>
+    <t>NIKITA  PATIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:54:13 am</t>
+    <t>SUREKHA BEN  PATEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:34:56 am</t>
+    <t>EKTA  PARMAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:35:19 am</t>
+    <t xml:space="preserve">CHANDANI  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:26:18 am</t>
+    <t>AHVINI  VAGH</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:36:24 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:38:02 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:34:18 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:37:08 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:33:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:11 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:02 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:50:07 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:45:23 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:42:57 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:40:09 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:41:54 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:44:08 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:42:39 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:41:53 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAYATRI  KOSHTI </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:38:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:39 pm</t>
+    <t>KAVITA  PARATE</t>
   </si>
   <si>
     <t xml:space="preserve">TANNU  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:39:45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:15:59 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:06 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:38:17 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:56:19 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:15 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:49:08 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:53:28 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:46:35 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:08:02 pm</t>
-  </si>
-  <si>
-    <t>EKTA  PARMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:03 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:45:38 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:38:20 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:46 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:32 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:46:29 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:49:38 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:40:34 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:49:21 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:42:22 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:53 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:53:00 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:35 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:47 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:44:24 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:38 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:49:02 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:11 pm</t>
-  </si>
-  <si>
-    <t>NIKITA  PATIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:15 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:53:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:05 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:40 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:30:25 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:45:13 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:53:13 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:20 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:41:20 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:23 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:53:16 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:51:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:52 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:50:24 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:43 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:42:31 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:42:16 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:43:20 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:57 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:44:21 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:42:52 pm</t>
-  </si>
-  <si>
-    <t>KAVITA  PARATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:27 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:53:17 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:42:25 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:04 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:52:43 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:31 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:46:54 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:43:05 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:59 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:41:56 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:26:06 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:38:44 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:45:00 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:06:27 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:38:40 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:44:26 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:43:07 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:48:36 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:45:00 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDANI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:47:55 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:07:50 pm</t>
+    <t>BHAVIKA  PATIL</t>
   </si>
   <si>
     <t xml:space="preserve">TABASSUM  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:49:02 am</t>
+    <t>ASHVINI  SURYAWANSHI</t>
+  </si>
+  <si>
+    <t>URVASHI  DARJI</t>
+  </si>
+  <si>
+    <t>KRISHNA  LAKDAWALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPTI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMIRA  </t>
+  </si>
+  <si>
+    <t>NIKITA  GAJERA</t>
+  </si>
+  <si>
+    <t>AARTI  PATIL</t>
+  </si>
+  <si>
+    <t>ROSHANI  PATIL</t>
   </si>
   <si>
     <t xml:space="preserve">ANAM  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:52:18 am</t>
+    <t>SHILPA  VAGHASIYA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4:33:09 pm</t>
+    <t>VIBHUTI   PATEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:40:54 am</t>
+    <t>BHUMIKA  PATEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6:05:07 pm</t>
-  </si>
-  <si>
-    <t>ASHVINI  SURYAWANSHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:24 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPTI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:57:01 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:05:43 pm</t>
-  </si>
-  <si>
-    <t>AARTI  PATIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:59:56 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:07:02 pm</t>
-  </si>
-  <si>
-    <t>ARCHANA  RAO</t>
+    <t>ANJALI   SONAWANE</t>
   </si>
   <si>
     <t>HEENA  KAHAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10:00:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:40:16 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:37:03 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:45:07 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:46:55 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:14:59 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:01:09 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:48:07 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:44:17 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:46:56 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:53:10 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:48 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:49:28 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:45:05 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:19 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:49:44 pm</t>
-  </si>
-  <si>
-    <t>KRISHNA  LAKDAWALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:45:36 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:32:07 am</t>
-  </si>
-  <si>
-    <t>SHILPA  VAGHASIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:46:23 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:47:04 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:56:08 am</t>
+    <t xml:space="preserve">GAYATRI  KOSHTI </t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -946,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG61"/>
+  <dimension ref="A1:AH85"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -954,7 +507,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,8 +607,11 @@
       <c r="AG1" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1081,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1090,16 +646,16 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
@@ -1114,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
         <v>5</v>
@@ -1150,43 +706,31 @@
         <v>5</v>
       </c>
       <c r="AF2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1204,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1216,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -1225,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" t="s">
         <v>5</v>
@@ -1243,37 +787,37 @@
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W5" t="s">
         <v>6</v>
       </c>
       <c r="X5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="s">
         <v>5</v>
       </c>
       <c r="AB5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="s">
         <v>6</v>
       </c>
       <c r="AD5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="s">
         <v>6</v>
@@ -1281,98 +825,26 @@
       <c r="AG5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1384,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1402,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -1411,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
         <v>5</v>
@@ -1426,130 +898,67 @@
         <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W8" t="s">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="s">
         <v>6</v>
       </c>
       <c r="AC8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AH8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1561,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1582,25 +991,25 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
         <v>5</v>
       </c>
       <c r="Q11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11" t="s">
         <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T11" t="s">
         <v>5</v>
@@ -1612,10 +1021,10 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
@@ -1627,46 +1036,43 @@
         <v>5</v>
       </c>
       <c r="AB11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1675,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -1696,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="s">
         <v>5</v>
@@ -1705,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
         <v>5</v>
@@ -1723,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="U14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W14" t="s">
         <v>6</v>
@@ -1744,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="AB14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD14" t="s">
         <v>6</v>
@@ -1756,58 +1162,31 @@
         <v>5</v>
       </c>
       <c r="AF14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AH14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" t="s">
-        <v>68</v>
-      </c>
-      <c r="V15" t="s">
-        <v>69</v>
-      </c>
-      <c r="W15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1837,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
@@ -1846,10 +1225,10 @@
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="s">
         <v>5</v>
@@ -1864,22 +1243,22 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" t="s">
         <v>6</v>
       </c>
       <c r="Y17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA17" t="s">
         <v>5</v>
@@ -1888,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="AC17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="s">
         <v>5</v>
       </c>
       <c r="AE17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="s">
         <v>6</v>
@@ -1902,83 +1281,26 @@
       <c r="AG17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AH17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="L18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s">
-        <v>80</v>
-      </c>
-      <c r="W18" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" t="s">
-        <v>90</v>
-      </c>
-      <c r="W19" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1999,25 +1321,25 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" t="s">
         <v>5</v>
       </c>
       <c r="O20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
         <v>5</v>
@@ -2032,16 +1354,16 @@
         <v>5</v>
       </c>
       <c r="T20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X20" t="s">
         <v>6</v>
@@ -2050,127 +1372,64 @@
         <v>5</v>
       </c>
       <c r="Z20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="s">
         <v>6</v>
       </c>
       <c r="AE20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="s">
         <v>6</v>
       </c>
       <c r="AG20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" t="s">
-        <v>101</v>
-      </c>
-      <c r="V21" t="s">
-        <v>102</v>
-      </c>
-      <c r="W21" t="s">
-        <v>103</v>
-      </c>
-      <c r="X21" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" t="s">
-        <v>111</v>
-      </c>
-      <c r="W22" t="s">
-        <v>112</v>
-      </c>
-      <c r="X22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2185,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="s">
         <v>5</v>
@@ -2194,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
         <v>5</v>
@@ -2209,130 +1468,73 @@
         <v>5</v>
       </c>
       <c r="T23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W23" t="s">
         <v>6</v>
       </c>
       <c r="X23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="s">
         <v>5</v>
       </c>
       <c r="Z23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB23" t="s">
         <v>6</v>
       </c>
       <c r="AC23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AH23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="L24" t="s">
-        <v>121</v>
-      </c>
-      <c r="T24" t="s">
-        <v>122</v>
-      </c>
-      <c r="U24" t="s">
-        <v>123</v>
-      </c>
-      <c r="V24" t="s">
-        <v>124</v>
-      </c>
-      <c r="W24" t="s">
-        <v>125</v>
-      </c>
-      <c r="X24" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" t="s">
-        <v>134</v>
-      </c>
-      <c r="T25" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -2353,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" t="s">
         <v>5</v>
@@ -2365,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
         <v>5</v>
@@ -2383,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26" t="s">
         <v>5</v>
@@ -2416,40 +1618,37 @@
         <v>5</v>
       </c>
       <c r="AF26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -2464,16 +1663,16 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
         <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" t="s">
         <v>5</v>
@@ -2482,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29" t="s">
         <v>5</v>
@@ -2509,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="X29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y29" t="s">
         <v>5</v>
@@ -2518,61 +1717,61 @@
         <v>5</v>
       </c>
       <c r="AA29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="L30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -2584,19 +1783,19 @@
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="s">
         <v>5</v>
       </c>
       <c r="O32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P32" t="s">
         <v>5</v>
@@ -2608,109 +1807,100 @@
         <v>5</v>
       </c>
       <c r="S32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T32" t="s">
         <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE32" t="s">
         <v>6</v>
       </c>
       <c r="AF32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="L33" t="s">
-        <v>146</v>
-      </c>
-      <c r="T33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M35" t="s">
         <v>5</v>
@@ -2719,22 +1909,22 @@
         <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="s">
         <v>5</v>
       </c>
       <c r="R35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S35" t="s">
         <v>5</v>
       </c>
       <c r="T35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" t="s">
         <v>5</v>
@@ -2743,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="W35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X35" t="s">
         <v>5</v>
@@ -2770,61 +1960,58 @@
         <v>5</v>
       </c>
       <c r="AF35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="L36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L38" t="s">
         <v>6</v>
@@ -2836,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P38" t="s">
         <v>5</v>
@@ -2863,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="X38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y38" t="s">
         <v>5</v>
@@ -2884,64 +2071,61 @@
         <v>5</v>
       </c>
       <c r="AE38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="L39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
         <v>6</v>
@@ -2953,49 +2137,49 @@
         <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
         <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y41" t="s">
         <v>5</v>
       </c>
       <c r="Z41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD41" t="s">
         <v>5</v>
@@ -3004,73 +2188,70 @@
         <v>5</v>
       </c>
       <c r="AF41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="L42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="s">
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P44" t="s">
         <v>5</v>
@@ -3082,10 +2263,10 @@
         <v>5</v>
       </c>
       <c r="S44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U44" t="s">
         <v>5</v>
@@ -3094,22 +2275,22 @@
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y44" t="s">
         <v>5</v>
       </c>
       <c r="Z44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA44" t="s">
         <v>5</v>
       </c>
       <c r="AB44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC44" t="s">
         <v>5</v>
@@ -3121,70 +2302,70 @@
         <v>5</v>
       </c>
       <c r="AF44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="T45" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N47" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P47" t="s">
         <v>5</v>
@@ -3193,10 +2374,10 @@
         <v>5</v>
       </c>
       <c r="R47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T47" t="s">
         <v>6</v>
@@ -3217,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="Z47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA47" t="s">
         <v>6</v>
@@ -3232,121 +2413,73 @@
         <v>6</v>
       </c>
       <c r="AE47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="T48" t="s">
-        <v>160</v>
-      </c>
-      <c r="U48" t="s">
-        <v>88</v>
-      </c>
-      <c r="V48" t="s">
-        <v>161</v>
-      </c>
-      <c r="W48" t="s">
-        <v>162</v>
-      </c>
-      <c r="X48" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="V49" t="s">
-        <v>169</v>
-      </c>
-      <c r="W49" t="s">
-        <v>170</v>
-      </c>
-      <c r="X49" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N50" t="s">
         <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P50" t="s">
         <v>5</v>
@@ -3361,19 +2494,19 @@
         <v>5</v>
       </c>
       <c r="T50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y50" t="s">
         <v>5</v>
@@ -3391,91 +2524,88 @@
         <v>5</v>
       </c>
       <c r="AD50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE50" t="s">
         <v>5</v>
       </c>
       <c r="AF50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="T51" t="s">
-        <v>177</v>
-      </c>
-      <c r="X51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P53" t="s">
         <v>5</v>
       </c>
       <c r="Q53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R53" t="s">
         <v>5</v>
       </c>
       <c r="S53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T53" t="s">
         <v>6</v>
@@ -3490,16 +2620,16 @@
         <v>5</v>
       </c>
       <c r="X53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z53" t="s">
         <v>5</v>
       </c>
       <c r="AA53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="s">
         <v>5</v>
@@ -3517,36 +2647,942 @@
         <v>6</v>
       </c>
       <c r="AG53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="T54" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>184</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S56" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" t="s">
+        <v>6</v>
+      </c>
+      <c r="W56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" t="s">
+        <v>6</v>
+      </c>
+      <c r="V59" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" t="s">
+        <v>6</v>
+      </c>
+      <c r="P62" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s">
+        <v>6</v>
+      </c>
+      <c r="U62" t="s">
+        <v>6</v>
+      </c>
+      <c r="V62" t="s">
+        <v>6</v>
+      </c>
+      <c r="W62" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>6</v>
+      </c>
+      <c r="N65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>6</v>
+      </c>
+      <c r="P65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s">
+        <v>6</v>
+      </c>
+      <c r="S65" t="s">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s">
+        <v>6</v>
+      </c>
+      <c r="U65" t="s">
+        <v>6</v>
+      </c>
+      <c r="V65" t="s">
+        <v>5</v>
+      </c>
+      <c r="W65" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>6</v>
+      </c>
+      <c r="R68" t="s">
+        <v>6</v>
+      </c>
+      <c r="S68" t="s">
+        <v>6</v>
+      </c>
+      <c r="T68" t="s">
+        <v>6</v>
+      </c>
+      <c r="U68" t="s">
+        <v>6</v>
+      </c>
+      <c r="V68" t="s">
+        <v>6</v>
+      </c>
+      <c r="W68" t="s">
+        <v>6</v>
+      </c>
+      <c r="X68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>6</v>
+      </c>
+      <c r="R71" t="s">
+        <v>6</v>
+      </c>
+      <c r="S71" t="s">
+        <v>6</v>
+      </c>
+      <c r="T71" t="s">
+        <v>6</v>
+      </c>
+      <c r="U71" t="s">
+        <v>6</v>
+      </c>
+      <c r="V71" t="s">
+        <v>6</v>
+      </c>
+      <c r="W71" t="s">
+        <v>6</v>
+      </c>
+      <c r="X71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>6</v>
+      </c>
+      <c r="R74" t="s">
+        <v>6</v>
+      </c>
+      <c r="S74" t="s">
+        <v>6</v>
+      </c>
+      <c r="T74" t="s">
+        <v>6</v>
+      </c>
+      <c r="U74" t="s">
+        <v>6</v>
+      </c>
+      <c r="V74" t="s">
+        <v>6</v>
+      </c>
+      <c r="W74" t="s">
+        <v>6</v>
+      </c>
+      <c r="X74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>6</v>
+      </c>
+      <c r="R77" t="s">
+        <v>6</v>
+      </c>
+      <c r="S77" t="s">
+        <v>6</v>
+      </c>
+      <c r="T77" t="s">
+        <v>6</v>
+      </c>
+      <c r="U77" t="s">
+        <v>6</v>
+      </c>
+      <c r="V77" t="s">
+        <v>6</v>
+      </c>
+      <c r="W77" t="s">
+        <v>6</v>
+      </c>
+      <c r="X77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HR-OFFICE-(WTC).xlsx
+++ b/reports/HR-OFFICE-(WTC).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="31">
   <si>
     <t>Sr.No</t>
   </si>
@@ -22,16 +22,16 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>DRASHTEE  ZADAFIYA</t>
+    <t xml:space="preserve">CHANDANI  </t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>P</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>P</t>
   </si>
   <si>
     <t>In Time</t>
@@ -40,79 +40,64 @@
     <t>Out Time</t>
   </si>
   <si>
+    <t>ASHVINI  SURYAWANSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMIRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANNU  </t>
+  </si>
+  <si>
     <t>DIXITA  GALANI</t>
+  </si>
+  <si>
+    <t>KAVITA  PARATE</t>
+  </si>
+  <si>
+    <t>EKTA  PARMAR</t>
+  </si>
+  <si>
+    <t>DRASHTEE  ZADAFIYA</t>
+  </si>
+  <si>
+    <t>SUREKHA BEN  PATEL</t>
   </si>
   <si>
     <t>NIKITA  PATIL</t>
   </si>
   <si>
-    <t>SUREKHA BEN  PATEL</t>
+    <t xml:space="preserve">TABASSUM  </t>
   </si>
   <si>
-    <t>EKTA  PARMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDANI  </t>
+    <t>NIKITA  GAJERA</t>
   </si>
   <si>
     <t>AHVINI  VAGH</t>
   </si>
   <si>
-    <t>KAVITA  PARATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANNU  </t>
+    <t xml:space="preserve">DIPTI  </t>
   </si>
   <si>
     <t>BHAVIKA  PATIL</t>
   </si>
   <si>
-    <t xml:space="preserve">TABASSUM  </t>
-  </si>
-  <si>
-    <t>ASHVINI  SURYAWANSHI</t>
+    <t>KRISHNA  LAKDAWALA</t>
   </si>
   <si>
     <t>URVASHI  DARJI</t>
   </si>
   <si>
-    <t>KRISHNA  LAKDAWALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPTI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMIRA  </t>
-  </si>
-  <si>
-    <t>NIKITA  GAJERA</t>
-  </si>
-  <si>
-    <t>AARTI  PATIL</t>
-  </si>
-  <si>
-    <t>ROSHANI  PATIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAM  </t>
-  </si>
-  <si>
     <t>SHILPA  VAGHASIYA</t>
-  </si>
-  <si>
-    <t>VIBHUTI   PATEL</t>
-  </si>
-  <si>
-    <t>BHUMIKA  PATEL</t>
   </si>
   <si>
     <t>ANJALI   SONAWANE</t>
   </si>
   <si>
-    <t>HEENA  KAHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAYATRI  KOSHTI </t>
+    <t>AARTI  PATIL</t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -499,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH70"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -625,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -637,16 +622,16 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
@@ -655,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
@@ -673,34 +658,34 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
         <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="s">
         <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
@@ -715,12 +700,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -739,13 +724,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -754,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -769,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
         <v>5</v>
@@ -784,31 +769,31 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="s">
         <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="s">
         <v>6</v>
@@ -826,15 +811,15 @@
         <v>6</v>
       </c>
       <c r="AH5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -853,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -883,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" t="s">
         <v>5</v>
@@ -907,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" t="s">
         <v>5</v>
@@ -919,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -934,21 +919,21 @@
         <v>5</v>
       </c>
       <c r="AF8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -967,13 +952,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -988,28 +973,28 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P11" t="s">
         <v>5</v>
       </c>
       <c r="Q11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11" t="s">
         <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s">
         <v>5</v>
@@ -1021,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" t="s">
         <v>6</v>
       </c>
       <c r="Y11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="s">
         <v>5</v>
@@ -1036,33 +1021,33 @@
         <v>5</v>
       </c>
       <c r="AB11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -1099,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
         <v>5</v>
@@ -1111,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" t="s">
         <v>5</v>
@@ -1129,31 +1114,31 @@
         <v>5</v>
       </c>
       <c r="U14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14" t="s">
         <v>6</v>
       </c>
       <c r="X14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="s">
         <v>6</v>
       </c>
       <c r="AA14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="s">
         <v>6</v>
@@ -1162,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="AF14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="s">
         <v>6</v>
@@ -1171,12 +1156,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -1195,34 +1180,34 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="s">
         <v>6</v>
@@ -1231,25 +1216,25 @@
         <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R17" t="s">
         <v>5</v>
       </c>
       <c r="S17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="s">
         <v>6</v>
@@ -1258,25 +1243,25 @@
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="s">
         <v>6</v>
       </c>
       <c r="AC17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="s">
         <v>6</v>
@@ -1285,12 +1270,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -1309,22 +1294,22 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
@@ -1336,52 +1321,52 @@
         <v>6</v>
       </c>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="s">
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="s">
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="s">
         <v>6</v>
@@ -1399,12 +1384,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>8</v>
       </c>
@@ -1420,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1435,76 +1420,76 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="s">
         <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R23" t="s">
         <v>5</v>
       </c>
       <c r="S23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W23" t="s">
         <v>6</v>
       </c>
       <c r="X23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="s">
         <v>6</v>
       </c>
       <c r="AC23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="s">
         <v>6</v>
@@ -1513,12 +1498,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -1534,55 +1519,55 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S26" t="s">
         <v>5</v>
       </c>
       <c r="T26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="s">
         <v>6</v>
@@ -1591,31 +1576,31 @@
         <v>6</v>
       </c>
       <c r="W26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA26" t="s">
         <v>5</v>
       </c>
       <c r="AB26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="s">
         <v>6</v>
@@ -1624,15 +1609,15 @@
         <v>6</v>
       </c>
       <c r="AH26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1657,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -1669,19 +1654,19 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P29" t="s">
         <v>5</v>
@@ -1708,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="X29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="s">
         <v>5</v>
@@ -1729,24 +1714,24 @@
         <v>6</v>
       </c>
       <c r="AE29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -1762,16 +1747,16 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -1783,16 +1768,16 @@
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="s">
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" t="s">
         <v>6</v>
@@ -1804,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="R32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S32" t="s">
         <v>6</v>
       </c>
       <c r="T32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U32" t="s">
         <v>6</v>
@@ -1843,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="AE32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF32" t="s">
         <v>6</v>
@@ -1855,12 +1840,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>8</v>
       </c>
@@ -1876,31 +1861,31 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="s">
         <v>5</v>
@@ -1909,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P35" t="s">
         <v>6</v>
@@ -1921,43 +1906,43 @@
         <v>6</v>
       </c>
       <c r="S35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T35" t="s">
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W35" t="s">
         <v>6</v>
       </c>
       <c r="X35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA35" t="s">
         <v>5</v>
       </c>
       <c r="AB35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC35" t="s">
         <v>5</v>
       </c>
       <c r="AD35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF35" t="s">
         <v>6</v>
@@ -1969,12 +1954,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -1990,31 +1975,31 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="s">
         <v>5</v>
@@ -2023,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P38" t="s">
         <v>5</v>
@@ -2038,13 +2023,13 @@
         <v>5</v>
       </c>
       <c r="T38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W38" t="s">
         <v>5</v>
@@ -2053,22 +2038,22 @@
         <v>6</v>
       </c>
       <c r="Y38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z38" t="s">
         <v>5</v>
       </c>
       <c r="AA38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE38" t="s">
         <v>6</v>
@@ -2080,15 +2065,15 @@
         <v>6</v>
       </c>
       <c r="AH38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>8</v>
       </c>
@@ -2104,31 +2089,31 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M41" t="s">
         <v>5</v>
@@ -2137,22 +2122,22 @@
         <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P41" t="s">
         <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U41" t="s">
         <v>6</v>
@@ -2167,10 +2152,10 @@
         <v>6</v>
       </c>
       <c r="Y41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA41" t="s">
         <v>6</v>
@@ -2182,27 +2167,27 @@
         <v>6</v>
       </c>
       <c r="AD41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF41" t="s">
         <v>6</v>
       </c>
       <c r="AG41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>8</v>
       </c>
@@ -2218,40 +2203,40 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P44" t="s">
         <v>5</v>
@@ -2263,25 +2248,25 @@
         <v>5</v>
       </c>
       <c r="S44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s">
         <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W44" t="s">
         <v>6</v>
       </c>
       <c r="X44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z44" t="s">
         <v>6</v>
@@ -2302,16 +2287,16 @@
         <v>5</v>
       </c>
       <c r="AF44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>7</v>
       </c>
@@ -2332,40 +2317,40 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
         <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P47" t="s">
         <v>5</v>
@@ -2374,22 +2359,22 @@
         <v>5</v>
       </c>
       <c r="R47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V47" t="s">
         <v>6</v>
       </c>
       <c r="W47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X47" t="s">
         <v>6</v>
@@ -2398,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="Z47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA47" t="s">
         <v>6</v>
@@ -2419,18 +2404,18 @@
         <v>6</v>
       </c>
       <c r="AG47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -2446,40 +2431,40 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
         <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P50" t="s">
         <v>5</v>
@@ -2497,25 +2482,25 @@
         <v>5</v>
       </c>
       <c r="U50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W50" t="s">
         <v>6</v>
       </c>
       <c r="X50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y50" t="s">
         <v>5</v>
       </c>
       <c r="Z50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB50" t="s">
         <v>5</v>
@@ -2524,27 +2509,27 @@
         <v>5</v>
       </c>
       <c r="AD50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE50" t="s">
         <v>5</v>
       </c>
       <c r="AF50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>8</v>
       </c>
@@ -2560,55 +2545,55 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L53" t="s">
         <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P53" t="s">
         <v>5</v>
       </c>
       <c r="Q53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R53" t="s">
         <v>5</v>
       </c>
       <c r="S53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U53" t="s">
         <v>5</v>
@@ -2620,7 +2605,7 @@
         <v>5</v>
       </c>
       <c r="X53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y53" t="s">
         <v>5</v>
@@ -2629,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="AA53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB53" t="s">
         <v>5</v>
@@ -2644,21 +2629,21 @@
         <v>5</v>
       </c>
       <c r="AF53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>8</v>
       </c>
@@ -2674,105 +2659,105 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L56" t="s">
         <v>6</v>
       </c>
       <c r="M56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P56" t="s">
         <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>8</v>
       </c>
@@ -2788,40 +2773,40 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P59" t="s">
         <v>5</v>
@@ -2839,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="U59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V59" t="s">
         <v>5</v>
@@ -2872,21 +2857,21 @@
         <v>5</v>
       </c>
       <c r="AF59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>8</v>
       </c>
@@ -2902,40 +2887,40 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P62" t="s">
         <v>5</v>
@@ -2950,13 +2935,13 @@
         <v>5</v>
       </c>
       <c r="T62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W62" t="s">
         <v>5</v>
@@ -2971,618 +2956,48 @@
         <v>5</v>
       </c>
       <c r="AA62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD62" t="s">
         <v>5</v>
       </c>
       <c r="AE62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" t="s">
-        <v>6</v>
-      </c>
-      <c r="K65" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65" t="s">
-        <v>6</v>
-      </c>
-      <c r="M65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N65" t="s">
-        <v>6</v>
-      </c>
-      <c r="O65" t="s">
-        <v>6</v>
-      </c>
-      <c r="P65" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>5</v>
-      </c>
-      <c r="R65" t="s">
-        <v>6</v>
-      </c>
-      <c r="S65" t="s">
-        <v>5</v>
-      </c>
-      <c r="T65" t="s">
-        <v>6</v>
-      </c>
-      <c r="U65" t="s">
-        <v>6</v>
-      </c>
-      <c r="V65" t="s">
-        <v>5</v>
-      </c>
-      <c r="W65" t="s">
-        <v>6</v>
-      </c>
-      <c r="X65" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>30</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" t="s">
-        <v>6</v>
-      </c>
-      <c r="K68" t="s">
-        <v>6</v>
-      </c>
-      <c r="L68" t="s">
-        <v>6</v>
-      </c>
-      <c r="M68" t="s">
-        <v>6</v>
-      </c>
-      <c r="N68" t="s">
-        <v>6</v>
-      </c>
-      <c r="O68" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>6</v>
-      </c>
-      <c r="R68" t="s">
-        <v>6</v>
-      </c>
-      <c r="S68" t="s">
-        <v>6</v>
-      </c>
-      <c r="T68" t="s">
-        <v>6</v>
-      </c>
-      <c r="U68" t="s">
-        <v>6</v>
-      </c>
-      <c r="V68" t="s">
-        <v>6</v>
-      </c>
-      <c r="W68" t="s">
-        <v>6</v>
-      </c>
-      <c r="X68" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" t="s">
-        <v>6</v>
-      </c>
-      <c r="K71" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" t="s">
-        <v>5</v>
-      </c>
-      <c r="M71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N71" t="s">
-        <v>6</v>
-      </c>
-      <c r="O71" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>6</v>
-      </c>
-      <c r="R71" t="s">
-        <v>6</v>
-      </c>
-      <c r="S71" t="s">
-        <v>6</v>
-      </c>
-      <c r="T71" t="s">
-        <v>6</v>
-      </c>
-      <c r="U71" t="s">
-        <v>6</v>
-      </c>
-      <c r="V71" t="s">
-        <v>6</v>
-      </c>
-      <c r="W71" t="s">
-        <v>6</v>
-      </c>
-      <c r="X71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" t="s">
-        <v>6</v>
-      </c>
-      <c r="K74" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" t="s">
-        <v>6</v>
-      </c>
-      <c r="M74" t="s">
-        <v>6</v>
-      </c>
-      <c r="N74" t="s">
-        <v>6</v>
-      </c>
-      <c r="O74" t="s">
-        <v>6</v>
-      </c>
-      <c r="P74" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>6</v>
-      </c>
-      <c r="R74" t="s">
-        <v>6</v>
-      </c>
-      <c r="S74" t="s">
-        <v>6</v>
-      </c>
-      <c r="T74" t="s">
-        <v>6</v>
-      </c>
-      <c r="U74" t="s">
-        <v>6</v>
-      </c>
-      <c r="V74" t="s">
-        <v>6</v>
-      </c>
-      <c r="W74" t="s">
-        <v>6</v>
-      </c>
-      <c r="X74" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>26</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77" t="s">
-        <v>6</v>
-      </c>
-      <c r="L77" t="s">
-        <v>5</v>
-      </c>
-      <c r="M77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N77" t="s">
-        <v>6</v>
-      </c>
-      <c r="O77" t="s">
-        <v>6</v>
-      </c>
-      <c r="P77" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>6</v>
-      </c>
-      <c r="R77" t="s">
-        <v>6</v>
-      </c>
-      <c r="S77" t="s">
-        <v>6</v>
-      </c>
-      <c r="T77" t="s">
-        <v>6</v>
-      </c>
-      <c r="U77" t="s">
-        <v>6</v>
-      </c>
-      <c r="V77" t="s">
-        <v>6</v>
-      </c>
-      <c r="W77" t="s">
-        <v>6</v>
-      </c>
-      <c r="X77" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HR-OFFICE-(WTC).xlsx
+++ b/reports/HR-OFFICE-(WTC).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="189">
   <si>
     <t>Sr.No</t>
   </si>
@@ -22,82 +22,556 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>URVASHI  DARJI</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:29:17 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:36:22 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:31:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:32:59 am</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:07:42 pm</t>
+  </si>
+  <si>
+    <t>DRASHTEE  ZADAFIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:32:44 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:33:32 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:35 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:39:48 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:32 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:41:45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:50:50 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:41:31 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:41:39 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:43 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:48 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:27:10 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:04:51 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:32:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:02 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:56:25 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:31 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:40 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:44:40 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:42 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:43:51 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:19 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:27:14 am</t>
+  </si>
+  <si>
+    <t>DIXITA  GALANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:53 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:54:13 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:34:56 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:19 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:26:18 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:24 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:38:02 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:34:18 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:37:08 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:33:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:11 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:02 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:50:07 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:45:23 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:57 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:40:09 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:41:54 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:44:08 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:39 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:41:53 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:09 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAYATRI  KOSHTI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:38:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:39 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANNU  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:39:45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:15:59 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:06 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:38:17 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:56:19 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:15 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:08 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:53:28 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:46:35 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:08:02 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:55 pm</t>
+  </si>
+  <si>
+    <t>EKTA  PARMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:03 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:45:38 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:38:20 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:46 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:32 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:46:29 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:49:38 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:40:34 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:49:21 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:42:22 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:53 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:53:00 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:35 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:44:24 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:38 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:02 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:11 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:26 pm</t>
+  </si>
+  <si>
+    <t>NIKITA  PATIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:15 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:53:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:05 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:40 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:30:25 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:45:13 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:53:13 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:20 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:41:20 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:23 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:53:16 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:51:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:52 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:50:24 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:43 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:31 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:16 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:43:20 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:57 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:44:21 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:42:52 pm</t>
+  </si>
+  <si>
+    <t>KAVITA  PARATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:27 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:53:17 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:42:25 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:04 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:52:43 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:31 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:46:54 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:43:05 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:47:59 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:41:56 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:26:06 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:38:44 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:45:00 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:06:27 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:38:40 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:44:26 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:43:07 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:36 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:45:00 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:36 pm</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHANDANI  </t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
+    <t xml:space="preserve"> 9:47:55 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:07:50 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABASSUM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:49:02 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:52:18 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:33:09 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:40:54 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:07 pm</t>
   </si>
   <si>
     <t>ASHVINI  SURYAWANSHI</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMIRA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANNU  </t>
-  </si>
-  <si>
-    <t>DIXITA  GALANI</t>
-  </si>
-  <si>
-    <t>KAVITA  PARATE</t>
-  </si>
-  <si>
-    <t>EKTA  PARMAR</t>
-  </si>
-  <si>
-    <t>DRASHTEE  ZADAFIYA</t>
-  </si>
-  <si>
-    <t>SUREKHA BEN  PATEL</t>
-  </si>
-  <si>
-    <t>NIKITA  PATIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABASSUM  </t>
-  </si>
-  <si>
-    <t>NIKITA  GAJERA</t>
-  </si>
-  <si>
-    <t>AHVINI  VAGH</t>
+    <t xml:space="preserve"> 6:05:24 pm</t>
   </si>
   <si>
     <t xml:space="preserve">DIPTI  </t>
   </si>
   <si>
-    <t>BHAVIKA  PATIL</t>
+    <t xml:space="preserve"> 9:57:01 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:05:43 pm</t>
+  </si>
+  <si>
+    <t>AARTI  PATIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:59:56 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:07:02 pm</t>
+  </si>
+  <si>
+    <t>ARCHANA  RAO</t>
+  </si>
+  <si>
+    <t>HEENA  KAHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:00:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:40:16 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:37:03 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:45:07 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:46:55 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:14:59 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:01:09 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:48:07 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:44:17 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:56 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:53:10 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:48 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:28 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:45:05 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:19 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:44 pm</t>
   </si>
   <si>
     <t>KRISHNA  LAKDAWALA</t>
   </si>
   <si>
-    <t>URVASHI  DARJI</t>
+    <t xml:space="preserve"> 10:45:36 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:32:07 am</t>
   </si>
   <si>
     <t>SHILPA  VAGHASIYA</t>
   </si>
   <si>
-    <t>ANJALI   SONAWANE</t>
-  </si>
-  <si>
-    <t>AARTI  PATIL</t>
+    <t xml:space="preserve"> 4:46:23 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:04 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:56:08 am</t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -484,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AG61"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -492,7 +966,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,11 +1066,8 @@
       <c r="AG1" s="1">
         <v>30</v>
       </c>
-      <c r="AH1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -610,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -628,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>5</v>
@@ -646,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
@@ -655,19 +1126,19 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
         <v>6</v>
@@ -676,46 +1147,58 @@
         <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
         <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="3:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -724,28 +1207,28 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -769,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
         <v>6</v>
@@ -778,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
         <v>6</v>
@@ -787,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="s">
         <v>6</v>
@@ -799,37 +1282,109 @@
         <v>6</v>
       </c>
       <c r="AD5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="s">
         <v>6</v>
       </c>
       <c r="AG5" t="s">
         <v>6</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -838,13 +1393,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -859,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -883,67 +1438,133 @@
         <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="s">
         <v>5</v>
       </c>
       <c r="AG8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -952,13 +1573,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -973,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
@@ -1009,10 +1630,10 @@
         <v>5</v>
       </c>
       <c r="X11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="s">
         <v>5</v>
@@ -1038,26 +1659,29 @@
       <c r="AG11" t="s">
         <v>5</v>
       </c>
-      <c r="AH11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1066,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1084,10 +1708,10 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
         <v>5</v>
@@ -1123,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="X14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="s">
         <v>6</v>
       </c>
       <c r="AA14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="s">
         <v>6</v>
@@ -1152,26 +1776,56 @@
       <c r="AG14" t="s">
         <v>6</v>
       </c>
-      <c r="AH14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1180,22 +1834,22 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
         <v>5</v>
@@ -1204,28 +1858,28 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
         <v>5</v>
       </c>
       <c r="S17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" t="s">
         <v>6</v>
@@ -1240,13 +1894,13 @@
         <v>6</v>
       </c>
       <c r="Y17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="s">
         <v>6</v>
       </c>
       <c r="AA17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="s">
         <v>6</v>
@@ -1255,37 +1909,97 @@
         <v>6</v>
       </c>
       <c r="AD17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="s">
         <v>6</v>
       </c>
       <c r="AF17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="s">
         <v>6</v>
       </c>
-      <c r="AH17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" t="s">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W19" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1294,49 +2008,49 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="s">
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s">
         <v>6</v>
@@ -1351,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="X20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z20" t="s">
         <v>6</v>
@@ -1372,34 +2086,97 @@
         <v>6</v>
       </c>
       <c r="AE20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="s">
         <v>6</v>
       </c>
       <c r="AG20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>102</v>
+      </c>
+      <c r="T21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V21" t="s">
+        <v>105</v>
+      </c>
+      <c r="W21" t="s">
+        <v>106</v>
+      </c>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>114</v>
+      </c>
+      <c r="W22" t="s">
+        <v>115</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1408,22 +2185,22 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
@@ -1432,25 +2209,25 @@
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" t="s">
         <v>5</v>
       </c>
       <c r="S23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s">
         <v>6</v>
@@ -1468,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="Y23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="s">
         <v>6</v>
@@ -1494,26 +2271,86 @@
       <c r="AG23" t="s">
         <v>6</v>
       </c>
-      <c r="AH23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" t="s">
+        <v>125</v>
+      </c>
+      <c r="U24" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W24" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>137</v>
+      </c>
+      <c r="T25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1525,109 +2362,112 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s">
         <v>5</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="s">
         <v>5</v>
       </c>
       <c r="AB26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1642,28 +2482,28 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O29" t="s">
         <v>5</v>
@@ -1702,16 +2542,16 @@
         <v>5</v>
       </c>
       <c r="AA29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="s">
         <v>5</v>
@@ -1722,26 +2562,26 @@
       <c r="AG29" t="s">
         <v>5</v>
       </c>
-      <c r="AH29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1774,13 +2614,13 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P32" t="s">
         <v>5</v>
@@ -1789,73 +2629,82 @@
         <v>5</v>
       </c>
       <c r="R32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>150</v>
+      </c>
+      <c r="T33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1897,79 +2746,82 @@
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="s">
         <v>5</v>
       </c>
       <c r="R35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA35" t="s">
         <v>5</v>
       </c>
       <c r="AB35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC35" t="s">
         <v>5</v>
       </c>
       <c r="AD35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1999,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" t="s">
         <v>5</v>
@@ -2023,67 +2875,70 @@
         <v>5</v>
       </c>
       <c r="T38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W38" t="s">
         <v>5</v>
       </c>
       <c r="X38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z38" t="s">
         <v>5</v>
       </c>
       <c r="AA38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2113,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="s">
         <v>5</v>
@@ -2140,64 +2995,67 @@
         <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z41" t="s">
         <v>5</v>
       </c>
       <c r="AA41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG41" t="s">
         <v>5</v>
       </c>
-      <c r="AH41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2251,31 +3109,31 @@
         <v>5</v>
       </c>
       <c r="T44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X44" t="s">
         <v>5</v>
       </c>
       <c r="Y44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA44" t="s">
         <v>5</v>
       </c>
       <c r="AB44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC44" t="s">
         <v>5</v>
@@ -2292,26 +3150,26 @@
       <c r="AG44" t="s">
         <v>5</v>
       </c>
-      <c r="AH44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>7</v>
       </c>
+      <c r="T45" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -2365,16 +3223,16 @@
         <v>5</v>
       </c>
       <c r="T47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V47" t="s">
         <v>6</v>
       </c>
       <c r="W47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X47" t="s">
         <v>6</v>
@@ -2398,34 +3256,82 @@
         <v>6</v>
       </c>
       <c r="AE47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG47" t="s">
         <v>5</v>
       </c>
-      <c r="AH47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>164</v>
+      </c>
+      <c r="U48" t="s">
+        <v>90</v>
+      </c>
+      <c r="V48" t="s">
+        <v>165</v>
+      </c>
+      <c r="W48" t="s">
+        <v>166</v>
+      </c>
+      <c r="X48" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="V49" t="s">
+        <v>173</v>
+      </c>
+      <c r="W49" t="s">
+        <v>174</v>
+      </c>
+      <c r="X49" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -2479,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="T50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U50" t="s">
         <v>5</v>
@@ -2488,7 +3394,7 @@
         <v>5</v>
       </c>
       <c r="W50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X50" t="s">
         <v>6</v>
@@ -2497,10 +3403,10 @@
         <v>5</v>
       </c>
       <c r="Z50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB50" t="s">
         <v>5</v>
@@ -2520,26 +3426,29 @@
       <c r="AG50" t="s">
         <v>5</v>
       </c>
-      <c r="AH50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>181</v>
+      </c>
+      <c r="X51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -2569,7 +3478,7 @@
         <v>5</v>
       </c>
       <c r="L53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="s">
         <v>5</v>
@@ -2593,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="T53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U53" t="s">
         <v>5</v>
@@ -2608,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="Y53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z53" t="s">
         <v>5</v>
@@ -2629,375 +3538,39 @@
         <v>5</v>
       </c>
       <c r="AF53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG53" t="s">
         <v>5</v>
       </c>
-      <c r="AH53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>19</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" t="s">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>5</v>
-      </c>
-      <c r="O56" t="s">
-        <v>5</v>
-      </c>
-      <c r="P56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>5</v>
-      </c>
-      <c r="R56" t="s">
-        <v>5</v>
-      </c>
-      <c r="S56" t="s">
-        <v>5</v>
-      </c>
-      <c r="T56" t="s">
-        <v>5</v>
-      </c>
-      <c r="U56" t="s">
-        <v>5</v>
-      </c>
-      <c r="V56" t="s">
-        <v>5</v>
-      </c>
-      <c r="W56" t="s">
-        <v>5</v>
-      </c>
-      <c r="X56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" t="s">
-        <v>6</v>
-      </c>
-      <c r="M59" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>21</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
